--- a/scrapers/scraped-data/Martinsregatta 2023_470.xlsx
+++ b/scrapers/scraped-data/Martinsregatta 2023_470.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C2" t="n">
         <v>470</v>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C3" t="n">
         <v>470</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C4" t="n">
         <v>470</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C5" t="n">
         <v>470</v>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C6" t="n">
         <v>470</v>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C7" t="n">
         <v>470</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C8" t="n">
         <v>470</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C9" t="n">
         <v>470</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C10" t="n">
         <v>470</v>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C11" t="n">
         <v>470</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C12" t="n">
         <v>470</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C13" t="n">
         <v>470</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C14" t="n">
         <v>470</v>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C15" t="n">
         <v>470</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C16" t="n">
         <v>470</v>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C17" t="n">
         <v>470</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C18" t="n">
         <v>470</v>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C19" t="n">
         <v>470</v>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C20" t="n">
         <v>470</v>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C21" t="n">
         <v>470</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C22" t="n">
         <v>470</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C23" t="n">
         <v>470</v>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C24" t="n">
         <v>470</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C25" t="n">
         <v>470</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C26" t="n">
         <v>470</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C27" t="n">
         <v>470</v>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C28" t="n">
         <v>470</v>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C29" t="n">
         <v>470</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C30" t="n">
         <v>470</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C31" t="n">
         <v>470</v>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C32" t="n">
         <v>470</v>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C33" t="n">
         <v>470</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C34" t="n">
         <v>470</v>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C35" t="n">
         <v>470</v>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C36" t="n">
         <v>470</v>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C37" t="n">
         <v>470</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C38" t="n">
         <v>470</v>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C39" t="n">
         <v>470</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C40" t="n">
         <v>470</v>
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C41" t="n">
         <v>470</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C42" t="n">
         <v>470</v>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C43" t="n">
         <v>470</v>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C44" t="n">
         <v>470</v>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C45" t="n">
         <v>470</v>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C46" t="n">
         <v>470</v>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C47" t="n">
         <v>470</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C48" t="n">
         <v>470</v>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C49" t="n">
         <v>470</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C50" t="n">
         <v>470</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C51" t="n">
         <v>470</v>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C52" t="n">
         <v>470</v>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C53" t="n">
         <v>470</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C54" t="n">
         <v>470</v>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C55" t="n">
         <v>470</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C56" t="n">
         <v>470</v>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C57" t="n">
         <v>470</v>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C58" t="n">
         <v>470</v>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C59" t="n">
         <v>470</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C60" t="n">
         <v>470</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C61" t="n">
         <v>470</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C62" t="n">
         <v>470</v>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C63" t="n">
         <v>470</v>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C64" t="n">
         <v>470</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C65" t="n">
         <v>470</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C66" t="n">
         <v>470</v>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C67" t="n">
         <v>470</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C68" t="n">
         <v>470</v>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C69" t="n">
         <v>470</v>
@@ -3569,7 +3569,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C70" t="n">
         <v>470</v>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C71" t="n">
         <v>470</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C72" t="n">
         <v>470</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C73" t="n">
         <v>470</v>
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C74" t="n">
         <v>470</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C75" t="n">
         <v>470</v>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C76" t="n">
         <v>470</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C77" t="n">
         <v>470</v>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C78" t="n">
         <v>470</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C79" t="n">
         <v>470</v>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C80" t="n">
         <v>470</v>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C81" t="n">
         <v>470</v>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C82" t="n">
         <v>470</v>
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C83" t="n">
         <v>470</v>
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C84" t="n">
         <v>470</v>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C85" t="n">
         <v>470</v>
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C86" t="n">
         <v>470</v>
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C87" t="n">
         <v>470</v>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C88" t="n">
         <v>470</v>
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C89" t="n">
         <v>470</v>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C90" t="n">
         <v>470</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C91" t="n">
         <v>470</v>
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C92" t="n">
         <v>470</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C93" t="n">
         <v>470</v>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C94" t="n">
         <v>470</v>
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C95" t="n">
         <v>470</v>
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C96" t="n">
         <v>470</v>
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C97" t="n">
         <v>470</v>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C98" t="n">
         <v>470</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C99" t="n">
         <v>470</v>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C100" t="n">
         <v>470</v>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C101" t="n">
         <v>470</v>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C102" t="n">
         <v>470</v>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C103" t="n">
         <v>470</v>
